--- a/REGULAR/ASSESSOR/CARAAN ANNABELLE.xlsx
+++ b/REGULAR/ASSESSOR/CARAAN ANNABELLE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="470">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1440,6 +1440,9 @@
   </si>
   <si>
     <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -2137,7 +2140,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K705" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K706" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2466,12 +2469,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K705"/>
+  <dimension ref="A2:K706"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A648" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K658" sqref="K658"/>
+      <selection pane="bottomLeft" activeCell="F667" sqref="F667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,7 +2635,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>50.149000000000214</v>
+        <v>53.899000000000214</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2642,7 +2645,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>115.05000000000001</v>
+        <v>118.80000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17210,13 +17213,15 @@
       <c r="B658" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C658" s="13"/>
+      <c r="C658" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D658" s="39"/>
       <c r="E658" s="9"/>
       <c r="F658" s="20"/>
-      <c r="G658" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G658" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H658" s="39"/>
       <c r="I658" s="9"/>
@@ -17226,15 +17231,19 @@
       </c>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A659" s="40"/>
+      <c r="A659" s="40">
+        <v>45170</v>
+      </c>
       <c r="B659" s="20"/>
-      <c r="C659" s="13"/>
+      <c r="C659" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D659" s="39"/>
       <c r="E659" s="9"/>
       <c r="F659" s="20"/>
-      <c r="G659" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G659" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H659" s="39"/>
       <c r="I659" s="9"/>
@@ -17242,15 +17251,19 @@
       <c r="K659" s="20"/>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A660" s="40"/>
+      <c r="A660" s="40">
+        <v>45200</v>
+      </c>
       <c r="B660" s="20"/>
-      <c r="C660" s="13"/>
+      <c r="C660" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D660" s="39"/>
       <c r="E660" s="9"/>
       <c r="F660" s="20"/>
-      <c r="G660" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G660" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H660" s="39"/>
       <c r="I660" s="9"/>
@@ -17258,7 +17271,9 @@
       <c r="K660" s="20"/>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A661" s="40"/>
+      <c r="A661" s="40">
+        <v>45231</v>
+      </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
       <c r="D661" s="39"/>
@@ -17274,7 +17289,9 @@
       <c r="K661" s="20"/>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A662" s="40"/>
+      <c r="A662" s="40">
+        <v>45261</v>
+      </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
       <c r="D662" s="39"/>
@@ -17290,7 +17307,9 @@
       <c r="K662" s="20"/>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A663" s="40"/>
+      <c r="A663" s="48" t="s">
+        <v>469</v>
+      </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
       <c r="D663" s="39"/>
@@ -17306,7 +17325,9 @@
       <c r="K663" s="20"/>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A664" s="40"/>
+      <c r="A664" s="40">
+        <v>45292</v>
+      </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
       <c r="D664" s="39"/>
@@ -17322,7 +17343,9 @@
       <c r="K664" s="20"/>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A665" s="40"/>
+      <c r="A665" s="40">
+        <v>45323</v>
+      </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
       <c r="D665" s="39"/>
@@ -17338,7 +17361,9 @@
       <c r="K665" s="20"/>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A666" s="40"/>
+      <c r="A666" s="40">
+        <v>45352</v>
+      </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
       <c r="D666" s="39"/>
@@ -17354,7 +17379,9 @@
       <c r="K666" s="20"/>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A667" s="40"/>
+      <c r="A667" s="40">
+        <v>45383</v>
+      </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
       <c r="D667" s="39"/>
@@ -17370,7 +17397,9 @@
       <c r="K667" s="20"/>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A668" s="40"/>
+      <c r="A668" s="40">
+        <v>45413</v>
+      </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
       <c r="D668" s="39"/>
@@ -17386,7 +17415,9 @@
       <c r="K668" s="20"/>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A669" s="40"/>
+      <c r="A669" s="40">
+        <v>45444</v>
+      </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
       <c r="D669" s="39"/>
@@ -17962,20 +17993,36 @@
       <c r="K704" s="20"/>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A705" s="41"/>
-      <c r="B705" s="15"/>
-      <c r="C705" s="42"/>
-      <c r="D705" s="43"/>
+      <c r="A705" s="40"/>
+      <c r="B705" s="20"/>
+      <c r="C705" s="13"/>
+      <c r="D705" s="39"/>
       <c r="E705" s="9"/>
-      <c r="F705" s="15"/>
-      <c r="G705" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H705" s="43"/>
+      <c r="F705" s="20"/>
+      <c r="G705" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H705" s="39"/>
       <c r="I705" s="9"/>
-      <c r="J705" s="12"/>
-      <c r="K705" s="15"/>
+      <c r="J705" s="11"/>
+      <c r="K705" s="20"/>
+    </row>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A706" s="41"/>
+      <c r="B706" s="15"/>
+      <c r="C706" s="42"/>
+      <c r="D706" s="43"/>
+      <c r="E706" s="9"/>
+      <c r="F706" s="15"/>
+      <c r="G706" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H706" s="43"/>
+      <c r="I706" s="9"/>
+      <c r="J706" s="12"/>
+      <c r="K706" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18146,7 +18193,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>165.19900000000024</v>
+        <v>172.69900000000024</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
